--- a/public/StudentData/template_student.xlsx
+++ b/public/StudentData/template_student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fani Salamah\Downloads\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fani Salamah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5399C97-2398-45AC-8375-A42730D3A883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DD46E5-0B9F-45F4-B218-572E7C11E77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{96036A82-6580-4EC2-B9D0-D8D4F9CDF66A}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/StudentData/template_student.xlsx
+++ b/public/StudentData/template_student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fani Salamah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DD46E5-0B9F-45F4-B218-572E7C11E77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DE2C52-4644-446E-A59E-17A68927427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{96036A82-6580-4EC2-B9D0-D8D4F9CDF66A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -43,19 +43,22 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Departement_ID</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Budi</t>
-  </si>
-  <si>
     <t>budi@gmail.com</t>
   </si>
   <si>
     <t>NIS</t>
+  </si>
+  <si>
+    <t>Budi (Contoh)</t>
+  </si>
+  <si>
+    <t>Jurusan</t>
+  </si>
+  <si>
+    <t>TKJ &amp; Telekomunikasi</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,36 +448,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>125729281</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2">
         <v>123123123</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{15B98516-65B7-433E-BABE-B0715642948B}">
+      <formula1>"Broadcasting &amp; Perfilman, TKJ &amp; Telekomunikasi, Desain Pemodelan &amp; Informasi Bangunan, Teknik Konstruksi &amp; Perumahan, Teknik Ketenagalistrikan, Teknik Otomotif, Teknik Mesin"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E014AD44-906D-4010-BB9C-408349006CA9}"/>
   </hyperlinks>
